--- a/biology/Médecine/Face_(anatomie)/Face_(anatomie).xlsx
+++ b/biology/Médecine/Face_(anatomie)/Face_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, la face est la partie de la tête située sous la partie antérieure du crâne. Il s'agit d'une région dont l'architecture est relativement complexe et qui participe à plusieurs fonctions. Chez l'homme, elle participe avec le front à la structure du visage. L'os frontal ne fait pas partie des os de la face.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Squelette
-Son squelette, appelé viscérocrâne, splanchnocrâne ou encore massif facial, est formé par treize os fixes, soudés entre eux par des articulations fibreuses appelées sutures (au nombre de sept), ainsi que par un os mobile, la mandibule.
+          <t>Squelette</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son squelette, appelé viscérocrâne, splanchnocrâne ou encore massif facial, est formé par treize os fixes, soudés entre eux par des articulations fibreuses appelées sutures (au nombre de sept), ainsi que par un os mobile, la mandibule.
 Ces quatorze os sont :
 les deux os maxillaires ;
 les deux os zygomatiques ;
@@ -535,16 +552,6 @@
 les sinus sphénoïdaux (méat supérieur) ;
 les sinus ethmoïdaux (divisés en deux groupes dont l'antérieur se draîne dans le méat moyen et le postérieur dans le méat supérieur).
 Ce sont les deux os maxillaires qui portent les dents de la mâchoire supérieure. Le quatorzième os est le seul os mobile de la face : c'est la mandibule (anciennement os maxillaire inférieur) qui est porteur des dents de la mâchoire inférieure. Cet os s'articule de chaque côté avec l'os temporal à la base du crâne. Au squelette de la face peut être rattaché l'os hyoïde, situé à la base de la langue et sur lequel s'insèrent de nombreux muscles de la langue.
-Musculature
-Structures spécialisées
-Yeux
-Cavités nasales
-Cavité buccale
-Pharynx
-Vascularisation
-L'atère principale de la face est l'artère carotide externe.
-Innervation
-Les nerfs de la face sont les nerfs crâniens.
 </t>
         </is>
       </c>
@@ -570,10 +577,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anatomie des animaux</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Anatomie humaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atère principale de la face est l'artère carotide externe.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -596,16 +614,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs de la face sont les nerfs crâniens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Face_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Face_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie des animaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Face_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Face_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vision
-Respiration et olfaction
-Digestion et gustation
-Expression
-La face des primates aurait des expressions similaires à celles du visage des humains[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expression</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face des primates aurait des expressions similaires à celles du visage des humains.
 </t>
         </is>
       </c>
